--- a/sputnik/personal/ee/234ee.xlsx
+++ b/sputnik/personal/ee/234ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,19 +36,37 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t xml:space="preserve">Начислены пени за просрочку оплаты на 401 дн. в сумме 3988,21 (11017,15 х 362х 0,1%) </t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 84 дн. в сумме 251,93 (2999,19 х 44х 0,1%)</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>остаток</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начислены пени за просрочку оплаты на 132 дн. в сумме 441,34 (4797,14 х 92х 0,1%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начислены пени за просрочку оплаты на 89 дн. в сумме 230,09 (4695,68 х 49х 0,1%) </t>
   </si>
   <si>
     <t>оплачены пени</t>
-  </si>
-  <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты на 84 дн. в сумме 251,93 (2999,19 х 44х 0,1%) с учетом переплаты оплатить 218,65 (251,93-33,28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Начислены пени за просрочку оплаты на 92 дн. в сумме 441,34 (4797,14 х 92х 0,1%) </t>
   </si>
 </sst>
 </file>
@@ -65,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +109,34 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -119,15 +149,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -142,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,34 +191,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -234,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -247,56 +241,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,10 +588,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,192 +602,249 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>42987</v>
+        <v>43204</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>7565</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>9100</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>3154</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>4200</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43204</v>
+        <v>43606</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>9100</v>
+        <v>11118</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>1535</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.29</v>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>2018</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>6585.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>9222.26</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>11017.15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>11717.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4200</v>
+        <v>4951</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>1046</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.17</v>
+        <f t="shared" si="0"/>
+        <v>751</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>2269.8199999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1794.89</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43606</v>
+        <v>43691</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>11118</v>
+        <v>11655</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
-        <v>2018</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.57</v>
+        <f t="shared" si="0"/>
+        <v>537</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>9222.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2411.13</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>2999.19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3032.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4951</v>
+        <v>5193</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
-        <v>751</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2.39</v>
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>1794.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>588.06000000000006</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43606</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43691</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="16"/>
+        <v>43824</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12518</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>863</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>3874.8700000000003</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>4742.38</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4797.1400000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5550</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.4300000000000002</v>
+      </c>
       <c r="F9" s="6">
-        <v>3988.21</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>867.5100000000001</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43691</v>
+        <v>43914</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>11655</v>
+        <v>12855</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C6</f>
-        <v>537</v>
-      </c>
-      <c r="E10" s="16">
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>337</v>
+      </c>
+      <c r="E10" s="6">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>2411.13</v>
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>1513.13</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1807.16</v>
+      </c>
+      <c r="H10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1807.16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,177 +853,205 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>5193</v>
+        <v>5671</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C7</f>
-        <v>242</v>
-      </c>
-      <c r="E11" s="16">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="E11" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>588.06000000000006</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>294.03000000000003</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
+        <v>43914</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>13389</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>534</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>2397.6600000000003</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>2888.5200000000004</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>2888.5200000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5873</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="5"/>
+        <v>490.86</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(G2:G13)</f>
+        <v>23454.400000000001</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(H2:H13)</f>
+        <v>24242.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>43691</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18">
-        <v>33.28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>43691</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43824</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>12518</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C10</f>
-        <v>863</v>
-      </c>
-      <c r="E14" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>3874.8700000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5550</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C11</f>
-        <v>357</v>
-      </c>
-      <c r="E15" s="16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>867.5100000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8">
+        <v>251.93</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43824</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="8">
+        <v>441.34</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>43914</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="8">
+        <v>230.09</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43914</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8">
+        <f>SUM(G14:G18)</f>
+        <v>24377.760000000002</v>
+      </c>
+      <c r="H19" s="8">
+        <f>SUM(H14:H18)</f>
+        <v>24742.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
+        <f>SUM(H19,-G19)</f>
+        <v>364.67999999999665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B13:F13"/>
+  <mergeCells count="4">
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/234ee.xlsx
+++ b/sputnik/personal/ee/234ee.xlsx
@@ -591,7 +591,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -871,32 +871,32 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43914</v>
+        <v>43928</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>13389</v>
+        <v>13190</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12:D13" si="4">C12-C10</f>
-        <v>534</v>
+        <v>335</v>
       </c>
       <c r="E12" s="6">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" ref="F12:F13" si="5">D12*E12</f>
-        <v>2397.6600000000003</v>
+        <v>1504.15</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>2888.5200000000004</v>
+        <v>1798.18</v>
       </c>
       <c r="H12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>2888.5200000000004</v>
+        <v>1798.18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -905,18 +905,18 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>5873</v>
+        <v>5792</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="4"/>
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="E13" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="5"/>
-        <v>490.86</v>
+        <v>294.03000000000003</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -932,11 +932,11 @@
       </c>
       <c r="G14" s="8">
         <f>SUM(G2:G13)</f>
-        <v>23454.400000000001</v>
+        <v>22364.06</v>
       </c>
       <c r="H14" s="8">
         <f>SUM(H2:H13)</f>
-        <v>24242.44</v>
+        <v>23152.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,11 +1014,11 @@
       </c>
       <c r="G19" s="8">
         <f>SUM(G14:G18)</f>
-        <v>24377.760000000002</v>
+        <v>23287.420000000002</v>
       </c>
       <c r="H19" s="8">
         <f>SUM(H14:H18)</f>
-        <v>24742.44</v>
+        <v>23652.1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">

--- a/sputnik/personal/ee/234ee.xlsx
+++ b/sputnik/personal/ee/234ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -76,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -269,16 +275,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,18 +600,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" customWidth="1"/>
@@ -939,49 +951,49 @@
         <v>23152.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43691</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="8">
         <v>251.93</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43824</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="8">
         <v>441.34</v>
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43914</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="8">
         <v>230.09</v>
       </c>
@@ -991,68 +1003,164 @@
       <c r="A18" s="4">
         <v>43914</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="14" t="s">
+      <c r="A19" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>13484</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-C12</f>
+        <v>294</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F20" si="6">D19*E19</f>
+        <v>1320.0600000000002</v>
+      </c>
+      <c r="G19" s="8">
+        <f>SUM(F19,F20)</f>
+        <v>1548.4800000000002</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1549.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5886</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C13</f>
+        <v>94</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="6"/>
+        <v>228.42000000000002</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>13612</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21-C19</f>
+        <v>128</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21:F22" si="7">D21*E21</f>
+        <v>574.72</v>
+      </c>
+      <c r="G21" s="8">
+        <f>SUM(F21,F22)</f>
+        <v>725.38</v>
+      </c>
+      <c r="H21" s="8">
+        <v>725.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5948</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22-C20</f>
+        <v>62</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="7"/>
+        <v>150.66</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="8">
-        <f>SUM(G14:G18)</f>
-        <v>23287.420000000002</v>
-      </c>
-      <c r="H19" s="8">
-        <f>SUM(H14:H18)</f>
-        <v>23652.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="14" t="s">
+      <c r="G23" s="8">
+        <f>SUM(G14:G22)</f>
+        <v>25561.280000000002</v>
+      </c>
+      <c r="H23" s="8">
+        <f>SUM(H14:H22)</f>
+        <v>25926.560000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
-        <f>SUM(H19,-G19)</f>
-        <v>364.67999999999665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
+        <f>SUM(H23,-G23)</f>
+        <v>365.27999999999884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/234ee.xlsx
+++ b/sputnik/personal/ee/234ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -48,9 +48,6 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>Начислены пени за просрочку оплаты на 84 дн. в сумме 251,93 (2999,19 х 44х 0,1%)</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>оплачены пени</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -76,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,54 +123,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,35 +193,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -257,41 +220,25 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,10 +547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,7 +648,7 @@
         <f>SUM(F4,F5)</f>
         <v>11017.15</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="15">
         <v>11717.15</v>
       </c>
     </row>
@@ -933,206 +880,235 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
+    <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>43691</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="8">
-        <f>SUM(G2:G13)</f>
-        <v>22364.06</v>
-      </c>
-      <c r="H14" s="8">
-        <f>SUM(H2:H13)</f>
-        <v>23152.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>43691</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="8">
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
         <v>251.93</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>43824</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
+      <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>441.34</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>43914</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="8">
-        <v>441.34</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>230.09</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43914</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21" t="s">
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="8">
-        <v>230.09</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43914</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="8"/>
+        <v>43964</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13484</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-C12</f>
+        <v>294</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>1320.0600000000002</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>1548.4800000000002</v>
+      </c>
       <c r="H18" s="8">
-        <v>500</v>
+        <v>1549.08</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43964</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>13484</v>
+        <v>5886</v>
       </c>
       <c r="D19" s="3">
-        <f>C19-C12</f>
-        <v>294</v>
+        <f>C19-C13</f>
+        <v>94</v>
       </c>
       <c r="E19" s="6">
-        <v>4.49</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F20" si="6">D19*E19</f>
-        <v>1320.0600000000002</v>
-      </c>
-      <c r="G19" s="8">
-        <f>SUM(F19,F20)</f>
-        <v>1548.4800000000002</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1549.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5886</v>
-      </c>
-      <c r="D20" s="3">
-        <f>C20-C13</f>
-        <v>94</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F20" s="6">
         <f t="shared" si="6"/>
         <v>228.42000000000002</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>13612</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C18</f>
+        <v>128</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
+        <v>574.72</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>725.38</v>
+      </c>
+      <c r="H20" s="8">
+        <v>725.38</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43983</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>13612</v>
+        <v>5948</v>
       </c>
       <c r="D21" s="3">
         <f>C21-C19</f>
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="E21" s="6">
-        <v>4.49</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:F22" si="7">D21*E21</f>
-        <v>574.72</v>
-      </c>
-      <c r="G21" s="8">
-        <f>SUM(F21,F22)</f>
-        <v>725.38</v>
-      </c>
-      <c r="H21" s="8">
-        <v>725.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5948</v>
-      </c>
-      <c r="D22" s="3">
-        <f>C22-C20</f>
-        <v>62</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F22" s="6">
         <f t="shared" si="7"/>
         <v>150.66</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(G2:G21)</f>
+        <v>25561.280000000002</v>
+      </c>
+      <c r="H22" s="8">
+        <f>SUM(H2:H21)</f>
+        <v>25926.560000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="8">
-        <f>SUM(G14:G22)</f>
-        <v>25561.280000000002</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="8">
-        <f>SUM(H14:H22)</f>
-        <v>25926.560000000001</v>
+        <f>SUM(H22,-G22)</f>
+        <v>365.27999999999884</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1140,25 +1116,10 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8">
-        <f>SUM(H23,-G23)</f>
-        <v>365.27999999999884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="H24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/234ee.xlsx
+++ b/sputnik/personal/ee/234ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -547,10 +547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1079,47 +1079,98 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
-        <v>11</v>
+      <c r="A22" s="4">
+        <v>44235</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15240</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22-C20</f>
+        <v>1628</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="8">D22*E22</f>
+        <v>7667.88</v>
       </c>
       <c r="G22" s="8">
-        <f>SUM(G2:G21)</f>
-        <v>25561.280000000002</v>
+        <f>SUM(F22,F23)</f>
+        <v>9409.5300000000007</v>
       </c>
       <c r="H22" s="8">
-        <f>SUM(H2:H21)</f>
-        <v>25926.560000000001</v>
+        <v>9393.25</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
-        <f>SUM(H22,-G22)</f>
-        <v>365.27999999999884</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6631</v>
+      </c>
+      <c r="D23" s="3">
+        <f>C23-C21</f>
+        <v>683</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="8"/>
+        <v>1741.6499999999999</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(G2:G21)</f>
+        <v>25561.280000000002</v>
+      </c>
+      <c r="H24" s="8">
+        <f>SUM(H2:H21)</f>
+        <v>25926.560000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
+        <f>SUM(H24,-G24)</f>
+        <v>365.27999999999884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/234ee.xlsx
+++ b/sputnik/personal/ee/234ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -547,10 +547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1130,47 +1130,98 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>11</v>
+      <c r="A24" s="4">
+        <v>44459</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>17769</v>
+      </c>
+      <c r="D24" s="3">
+        <f>C24-C22</f>
+        <v>2529</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="9">D24*E24</f>
+        <v>12543.84</v>
       </c>
       <c r="G24" s="8">
-        <f>SUM(G2:G21)</f>
-        <v>25561.280000000002</v>
+        <f>SUM(F24,F25)</f>
+        <v>16939.04</v>
       </c>
       <c r="H24" s="8">
-        <f>SUM(H2:H21)</f>
-        <v>25926.560000000001</v>
+        <v>16939.04</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8">
-        <f>SUM(H24,-G24)</f>
-        <v>365.27999999999884</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8271</v>
+      </c>
+      <c r="D25" s="3">
+        <f>C25-C23</f>
+        <v>1640</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="9"/>
+        <v>4395.2</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUM(G2:G25)</f>
+        <v>51909.850000000006</v>
+      </c>
+      <c r="H26" s="8">
+        <f>SUM(H2:H25)</f>
+        <v>52258.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
+        <f>SUM(H26,-G26)</f>
+        <v>348.99999999999272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/234ee.xlsx
+++ b/sputnik/personal/ee/234ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Т1</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начислены пени за просрочку оплаты на 253 дн. в сумме 2000,76 (9393,25 х 213х 0,1%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начислены пени за просрочку оплаты на 211 дн. в сумме 2896,58 (16939,04 х 171х 0,1%) </t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1038,14 +1044,14 @@
         <v>13612</v>
       </c>
       <c r="D20" s="3">
-        <f>C20-C18</f>
+        <f t="shared" ref="D20:D23" si="7">C20-C18</f>
         <v>128</v>
       </c>
       <c r="E20" s="6">
         <v>4.49</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
         <v>574.72</v>
       </c>
       <c r="G20" s="8">
@@ -1065,14 +1071,14 @@
         <v>5948</v>
       </c>
       <c r="D21" s="3">
-        <f>C21-C19</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="E21" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>150.66</v>
       </c>
       <c r="G21" s="2"/>
@@ -1089,14 +1095,14 @@
         <v>15240</v>
       </c>
       <c r="D22" s="3">
-        <f>C22-C20</f>
+        <f t="shared" si="7"/>
         <v>1628</v>
       </c>
       <c r="E22" s="6">
         <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:F23" si="8">D22*E22</f>
+        <f t="shared" ref="F22:F23" si="9">D22*E22</f>
         <v>7667.88</v>
       </c>
       <c r="G22" s="8">
@@ -1116,112 +1122,160 @@
         <v>6631</v>
       </c>
       <c r="D23" s="3">
-        <f>C23-C21</f>
+        <f t="shared" si="7"/>
         <v>683</v>
       </c>
       <c r="E23" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1741.6499999999999</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44235</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2000.76</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>44459</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
         <v>17769</v>
       </c>
-      <c r="D24" s="3">
-        <f>C24-C22</f>
+      <c r="D25" s="3">
+        <f>C25-C22</f>
         <v>2529</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>4.96</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" ref="F24:F25" si="9">D24*E24</f>
+      <c r="F25" s="6">
+        <f t="shared" ref="F25:F26" si="10">D25*E25</f>
         <v>12543.84</v>
       </c>
-      <c r="G24" s="8">
-        <f>SUM(F24,F25)</f>
+      <c r="G25" s="8">
+        <f>SUM(F25,F26)</f>
         <v>16939.04</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>16939.04</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>8271</v>
       </c>
-      <c r="D25" s="3">
-        <f>C25-C23</f>
+      <c r="D26" s="3">
+        <f>C26-C23</f>
         <v>1640</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>2.68</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="9"/>
+      <c r="F26" s="6">
+        <f t="shared" si="10"/>
         <v>4395.2</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="8">
-        <f>SUM(G2:G25)</f>
-        <v>51909.850000000006</v>
-      </c>
-      <c r="H26" s="8">
-        <f>SUM(H2:H25)</f>
-        <v>52258.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8">
-        <f>SUM(H26,-G26)</f>
-        <v>348.99999999999272</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44459</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>2896.58</v>
+      </c>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="8">
+        <f>SUM(G2:G27)</f>
+        <v>56807.19000000001</v>
+      </c>
+      <c r="H28" s="8">
+        <f>SUM(H2:H27)</f>
+        <v>52258.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8">
+        <f>SUM(H28,-G28)</f>
+        <v>-4548.3400000000111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
